--- a/teachMintAssesment/src/test/resources/TestData.xlsx
+++ b/teachMintAssesment/src/test/resources/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRAGATHI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRAGATHI\git\repository5\teachMintAssesment\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A461F9F-A814-4C7C-9A0D-74887791A32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F551341-F6D8-4AC2-B393-F36EBCBA6BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1B381B33-732E-4D7F-9ACD-54772D20DE94}"/>
   </bookViews>
@@ -46,15 +46,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,13 +68,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,18 +402,21 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>

--- a/teachMintAssesment/src/test/resources/TestData.xlsx
+++ b/teachMintAssesment/src/test/resources/TestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRAGATHI\git\repository5\teachMintAssesment\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F551341-F6D8-4AC2-B393-F36EBCBA6BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03507A69-134E-42DE-9BEA-8E81FB4E256B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1B381B33-732E-4D7F-9ACD-54772D20DE94}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1B381B33-732E-4D7F-9ACD-54772D20DE94}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="otp" sheetId="1" r:id="rId1"/>
+    <sheet name="result" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,12 +26,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>OTP</t>
   </si>
   <si>
     <t>120992</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
 </sst>
 </file>
@@ -401,7 +414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F987F1E0-9CD5-463D-9F4C-8E25BA4FEA42}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -423,4 +436,38 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCB7B97-931D-49CE-961D-245F3BD9A796}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>